--- a/table_model____spi-3__lasso_($\beta_=_$0.1).xlsx
+++ b/table_model____spi-3__lasso_($\beta_=_$0.1).xlsx
@@ -693,13 +693,13 @@
         <v>0.8834054962888866</v>
       </c>
       <c r="C2">
-        <v>0.8834035964249088</v>
+        <v>0.7862415843415023</v>
       </c>
       <c r="D2">
-        <v>0.888438117855503</v>
+        <v>0.8748238278016122</v>
       </c>
       <c r="E2">
-        <v>0.8834057710019219</v>
+        <v>0.8494274770682917</v>
       </c>
       <c r="F2">
         <v>0.8541385136022326</v>
@@ -848,13 +848,13 @@
         <v>0.7736683355420071</v>
       </c>
       <c r="C3">
-        <v>0.7736670588026047</v>
+        <v>0.6910890989654364</v>
       </c>
       <c r="D3">
-        <v>0.807388187756082</v>
+        <v>0.7661004507762237</v>
       </c>
       <c r="E3">
-        <v>0.7736685781169461</v>
+        <v>0.744318122934317</v>
       </c>
       <c r="F3">
         <v>0.7486791231505621</v>
@@ -1003,13 +1003,13 @@
         <v>0.2105490578421575</v>
       </c>
       <c r="C4">
-        <v>0.210549654954735</v>
+        <v>0.09840151080256659</v>
       </c>
       <c r="D4">
-        <v>0.2125132375489497</v>
+        <v>0.2081877174424799</v>
       </c>
       <c r="E4">
-        <v>0.210549134316589</v>
+        <v>0.204205808412265</v>
       </c>
       <c r="F4">
         <v>0.2026369193293431</v>
@@ -1158,13 +1158,13 @@
         <v>-0.3221606007916906</v>
       </c>
       <c r="C5">
-        <v>-0.322162695829697</v>
+        <v>-0.4612805883162602</v>
       </c>
       <c r="D5">
-        <v>-0.3954017753939249</v>
+        <v>-0.3195821077499101</v>
       </c>
       <c r="E5">
-        <v>-0.3221606854380599</v>
+        <v>-0.3086345738495472</v>
       </c>
       <c r="F5">
         <v>-0.3138180170915095</v>
@@ -1313,13 +1313,13 @@
         <v>0.2149233434941235</v>
       </c>
       <c r="C6">
-        <v>0.2149237513827522</v>
+        <v>0.1046285417443273</v>
       </c>
       <c r="D6">
-        <v>0.2269996794499614</v>
+        <v>0.2125221243183379</v>
       </c>
       <c r="E6">
-        <v>0.2149234211027208</v>
+        <v>0.2084670028587418</v>
       </c>
       <c r="F6">
         <v>0.2062879954055578</v>
@@ -1468,13 +1468,13 @@
         <v>-0.5556591779441956</v>
       </c>
       <c r="C7">
-        <v>-0.5556579664211322</v>
+        <v>-0.6021960799080008</v>
       </c>
       <c r="D7">
-        <v>-0.5519058416380014</v>
+        <v>-0.5509299691129457</v>
       </c>
       <c r="E7">
-        <v>-0.5556593292038888</v>
+        <v>-0.5337769198272205</v>
       </c>
       <c r="F7">
         <v>-0.5403008808834209</v>
@@ -1623,13 +1623,13 @@
         <v>-0.262231363244123</v>
       </c>
       <c r="C8">
-        <v>-0.2622303172768166</v>
+        <v>-0.3064320962304403</v>
       </c>
       <c r="D8">
-        <v>-0.2666662820171234</v>
+        <v>-0.2602177834635807</v>
       </c>
       <c r="E8">
-        <v>-0.2622314272282211</v>
+        <v>-0.2491746229413873</v>
       </c>
       <c r="F8">
         <v>-0.2576950762381993</v>
@@ -1778,13 +1778,13 @@
         <v>0.4594312756117378</v>
       </c>
       <c r="C9">
-        <v>0.4594320517956438</v>
+        <v>0.4279044728572459</v>
       </c>
       <c r="D9">
-        <v>0.4661708734564597</v>
+        <v>0.4547655345157082</v>
       </c>
       <c r="E9">
-        <v>0.4594314263978831</v>
+        <v>0.4432034603457084</v>
       </c>
       <c r="F9">
         <v>0.4439021862509759</v>
@@ -1933,13 +1933,13 @@
         <v>0.9007763177013192</v>
       </c>
       <c r="C10">
-        <v>0.9007761309102038</v>
+        <v>0.8581036468350874</v>
       </c>
       <c r="D10">
-        <v>0.9429090702229291</v>
+        <v>0.8920283077081674</v>
       </c>
       <c r="E10">
-        <v>0.9007765991207193</v>
+        <v>0.8637060819423494</v>
       </c>
       <c r="F10">
         <v>0.8716383855955974</v>
@@ -2088,13 +2088,13 @@
         <v>0.5377103946074558</v>
       </c>
       <c r="C11">
-        <v>0.5377095667734403</v>
+        <v>0.5173154905226341</v>
       </c>
       <c r="D11">
-        <v>0.5661734416900976</v>
+        <v>0.5323252418797353</v>
       </c>
       <c r="E11">
-        <v>0.5377105672825292</v>
+        <v>0.5181651013928024</v>
       </c>
       <c r="F11">
         <v>0.5198397688098936</v>
@@ -2243,13 +2243,13 @@
         <v>-0.865513664644353</v>
       </c>
       <c r="C12">
-        <v>-0.8655125961688478</v>
+        <v>-0.9304620839677633</v>
       </c>
       <c r="D12">
-        <v>-0.824422716499382</v>
+        <v>-0.8579157714483585</v>
       </c>
       <c r="E12">
-        <v>-0.8655139083495746</v>
+        <v>-0.8349709852127125</v>
       </c>
       <c r="F12">
         <v>-0.8404072838175228</v>
@@ -2398,13 +2398,13 @@
         <v>-0.5632738731240295</v>
       </c>
       <c r="C13">
-        <v>-0.5632716596574981</v>
+        <v>-0.6745069172646256</v>
       </c>
       <c r="D13">
-        <v>-0.4333524204543904</v>
+        <v>-0.5584774210226138</v>
       </c>
       <c r="E13">
-        <v>-0.5632740257570292</v>
+        <v>-0.5499409521546644</v>
       </c>
       <c r="F13">
         <v>-0.5474037904163609</v>
@@ -2553,13 +2553,13 @@
         <v>-0.5623885915544145</v>
       </c>
       <c r="C14">
-        <v>-0.5623843121254396</v>
+        <v>-0.5440954829532499</v>
       </c>
       <c r="D14">
-        <v>-0.5106647608330669</v>
+        <v>-0.5576070220913334</v>
       </c>
       <c r="E14">
-        <v>-0.5623887420773653</v>
+        <v>-0.5432293695599462</v>
       </c>
       <c r="F14">
         <v>-0.5466636773752767</v>
@@ -2708,13 +2708,13 @@
         <v>-0.4981606817404457</v>
       </c>
       <c r="C15">
-        <v>-0.4981594894060096</v>
+        <v>-0.4983172244498884</v>
       </c>
       <c r="D15">
-        <v>-0.5146052058135949</v>
+        <v>-0.4939636555017474</v>
       </c>
       <c r="E15">
-        <v>-0.4981608158862509</v>
+        <v>-0.4794346952287128</v>
       </c>
       <c r="F15">
         <v>-0.4864634451684355</v>
@@ -2863,13 +2863,13 @@
         <v>0.9423073403789016</v>
       </c>
       <c r="C16">
-        <v>0.9423065649388785</v>
+        <v>0.9360238976626226</v>
       </c>
       <c r="D16">
-        <v>1.017914100822206</v>
+        <v>0.9331767968967266</v>
       </c>
       <c r="E16">
-        <v>0.9423076336459489</v>
+        <v>0.8985254714377472</v>
       </c>
       <c r="F16">
         <v>0.9118649770980499</v>
@@ -3018,13 +3018,13 @@
         <v>1.186907491370068</v>
       </c>
       <c r="C17">
-        <v>1.186906735900378</v>
+        <v>1.050747059140312</v>
       </c>
       <c r="D17">
-        <v>1.187453600442195</v>
+        <v>1.175512699915828</v>
       </c>
       <c r="E17">
-        <v>1.186907857530851</v>
+        <v>1.133594939513871</v>
       </c>
       <c r="F17">
         <v>1.148716627556647</v>
@@ -3173,13 +3173,13 @@
         <v>1.124036134169654</v>
       </c>
       <c r="C18">
-        <v>1.124034779150394</v>
+        <v>0.9873249537280578</v>
       </c>
       <c r="D18">
-        <v>1.116704617971635</v>
+        <v>1.113225263081391</v>
       </c>
       <c r="E18">
-        <v>1.124036481062818</v>
+        <v>1.071893390743519</v>
       </c>
       <c r="F18">
         <v>1.087611844354011</v>
@@ -3328,13 +3328,13 @@
         <v>-1.173360014649614</v>
       </c>
       <c r="C19">
-        <v>-1.173360540338946</v>
+        <v>-1.20776409786106</v>
       </c>
       <c r="D19">
-        <v>-1.107096735639653</v>
+        <v>-1.162907328233877</v>
       </c>
       <c r="E19">
-        <v>-1.173360351498882</v>
+        <v>-1.135117666229679</v>
       </c>
       <c r="F19">
         <v>-1.138663270198108</v>
@@ -3483,13 +3483,13 @@
         <v>-1.303788057988181</v>
       </c>
       <c r="C20">
-        <v>-1.303789221401299</v>
+        <v>-1.313759178678514</v>
       </c>
       <c r="D20">
-        <v>-1.340431341957026</v>
+        <v>-1.292125977557162</v>
       </c>
       <c r="E20">
-        <v>-1.303788434266946</v>
+        <v>-1.259280838919664</v>
       </c>
       <c r="F20">
         <v>-1.265265231939009</v>
@@ -3638,13 +3638,13 @@
         <v>-1.257080948554375</v>
       </c>
       <c r="C21">
-        <v>-1.257080209114655</v>
+        <v>-1.326083100537944</v>
       </c>
       <c r="D21">
-        <v>-1.307652016587596</v>
+        <v>-1.245857380370412</v>
       </c>
       <c r="E21">
-        <v>-1.257081309216755</v>
+        <v>-1.217126025524844</v>
       </c>
       <c r="F21">
         <v>-1.220190577921243</v>
@@ -3793,13 +3793,13 @@
         <v>-0.3979644291984619</v>
       </c>
       <c r="C22">
-        <v>-0.3979638195746287</v>
+        <v>-0.436636969112735</v>
       </c>
       <c r="D22">
-        <v>-0.4113182281168715</v>
+        <v>-0.394693000452157</v>
       </c>
       <c r="E22">
-        <v>-0.3979645340126615</v>
+        <v>-0.3811923354599652</v>
       </c>
       <c r="F22">
         <v>-0.3878866366003999</v>
@@ -3948,13 +3948,13 @@
         <v>-1.325462989472516</v>
       </c>
       <c r="C23">
-        <v>-1.325461491006637</v>
+        <v>-1.368492544380365</v>
       </c>
       <c r="D23">
-        <v>-1.315029483401444</v>
+        <v>-1.313608888276265</v>
       </c>
       <c r="E23">
-        <v>-1.325463369830243</v>
+        <v>-1.276988989596431</v>
       </c>
       <c r="F23">
         <v>-1.286352106446204</v>
@@ -4103,13 +4103,13 @@
         <v>-1.663245715540186</v>
       </c>
       <c r="C24">
-        <v>-1.663245252602033</v>
+        <v>-1.69171314318727</v>
       </c>
       <c r="D24">
-        <v>-1.728285275773707</v>
+        <v>-1.648261518320375</v>
       </c>
       <c r="E24">
-        <v>-1.663246197461932</v>
+        <v>-1.600290878888149</v>
       </c>
       <c r="F24">
         <v>-1.613803081816824</v>
@@ -4258,13 +4258,13 @@
         <v>-1.160386418495372</v>
       </c>
       <c r="C25">
-        <v>-1.160387243930503</v>
+        <v>-1.208803780880302</v>
       </c>
       <c r="D25">
-        <v>-1.2975193054464</v>
+        <v>-1.150052854072606</v>
       </c>
       <c r="E25">
-        <v>-1.160386751747175</v>
+        <v>-1.117675035658884</v>
       </c>
       <c r="F25">
         <v>-1.127530082201872</v>
@@ -4413,13 +4413,13 @@
         <v>-1.140328725603564</v>
       </c>
       <c r="C26">
-        <v>-1.140329244129891</v>
+        <v>-1.191008208490535</v>
       </c>
       <c r="D26">
-        <v>-1.272517205662837</v>
+        <v>-1.130181822178174</v>
       </c>
       <c r="E26">
-        <v>-1.140329052605126</v>
+        <v>-1.09941779251423</v>
       </c>
       <c r="F26">
         <v>-1.108134282832612</v>
@@ -4568,13 +4568,13 @@
         <v>-0.2019398343725139</v>
       </c>
       <c r="C27">
-        <v>-0.201940437661608</v>
+        <v>-0.2119876535356679</v>
       </c>
       <c r="D27">
-        <v>-0.21744181250134</v>
+        <v>-0.2004790145602929</v>
       </c>
       <c r="E27">
-        <v>-0.2019398818673141</v>
+        <v>-0.1930688406744452</v>
       </c>
       <c r="F27">
         <v>-0.1958877031022327</v>
@@ -4723,13 +4723,13 @@
         <v>-1.256468864235698</v>
       </c>
       <c r="C28">
-        <v>-1.256468523297476</v>
+        <v>-1.277944206788346</v>
       </c>
       <c r="D28">
-        <v>-1.222297213927168</v>
+        <v>-1.245249671897197</v>
       </c>
       <c r="E28">
-        <v>-1.256469225071842</v>
+        <v>-1.215938216862838</v>
       </c>
       <c r="F28">
         <v>-1.21931106892099</v>
@@ -4878,13 +4878,13 @@
         <v>-0.6775381308617371</v>
       </c>
       <c r="C29">
-        <v>-0.6775366687779919</v>
+        <v>-0.7440757218171062</v>
       </c>
       <c r="D29">
-        <v>-0.6530686147116553</v>
+        <v>-0.671681539669882</v>
       </c>
       <c r="E29">
-        <v>-0.6775383182099874</v>
+        <v>-0.6554156100815813</v>
       </c>
       <c r="F29">
         <v>-0.6583292632338773</v>
@@ -5033,13 +5033,13 @@
         <v>0.3384801338253736</v>
       </c>
       <c r="C30">
-        <v>0.3384822675198684</v>
+        <v>0.2856730172998495</v>
       </c>
       <c r="D30">
-        <v>0.3737191929430859</v>
+        <v>0.3349296032586946</v>
       </c>
       <c r="E30">
-        <v>0.3384802497886409</v>
+        <v>0.3279012459652018</v>
       </c>
       <c r="F30">
         <v>0.325695310172546</v>
@@ -5188,13 +5188,13 @@
         <v>1.12446734854498</v>
       </c>
       <c r="C31">
-        <v>1.124468952760948</v>
+        <v>1.051092041793016</v>
       </c>
       <c r="D31">
-        <v>1.11918346984495</v>
+        <v>1.113642906291043</v>
       </c>
       <c r="E31">
-        <v>1.124467698211199</v>
+        <v>1.082095370621593</v>
       </c>
       <c r="F31">
         <v>1.088406457736862</v>
@@ -5343,13 +5343,13 @@
         <v>0.8548925656485896</v>
       </c>
       <c r="C32">
-        <v>0.8548940403153366</v>
+        <v>0.8086492858652553</v>
       </c>
       <c r="D32">
-        <v>0.8582453356261607</v>
+        <v>0.8465639080638621</v>
       </c>
       <c r="E32">
-        <v>0.8548928348822322</v>
+        <v>0.8240750174304693</v>
       </c>
       <c r="F32">
         <v>0.8271661952547654</v>
@@ -5498,13 +5498,13 @@
         <v>-0.3276902832347123</v>
       </c>
       <c r="C33">
-        <v>-0.32768975542631</v>
+        <v>-0.3255488936289495</v>
       </c>
       <c r="D33">
-        <v>-0.3315086691743339</v>
+        <v>-0.3250690943442814</v>
       </c>
       <c r="E33">
-        <v>-0.3276903671846292</v>
+        <v>-0.3153294511591527</v>
       </c>
       <c r="F33">
         <v>-0.3194350338191861</v>
@@ -5653,13 +5653,13 @@
         <v>-0.7252258267121977</v>
       </c>
       <c r="C34">
-        <v>-0.7252255399151303</v>
+        <v>-0.7422146176808122</v>
       </c>
       <c r="D34">
-        <v>-0.7344983592444255</v>
+        <v>-0.7189240015640048</v>
       </c>
       <c r="E34">
-        <v>-0.7252260293187842</v>
+        <v>-0.6984188652155124</v>
       </c>
       <c r="F34">
         <v>-0.7045492239704128</v>
@@ -5808,13 +5808,13 @@
         <v>-0.4934294699495597</v>
       </c>
       <c r="C35">
-        <v>-0.4934293848658129</v>
+        <v>-0.5012739962334104</v>
       </c>
       <c r="D35">
-        <v>-0.495636159891241</v>
+        <v>-0.4892726546239298</v>
       </c>
       <c r="E35">
-        <v>-0.4934296036752701</v>
+        <v>-0.4733344395416196</v>
       </c>
       <c r="F35">
         <v>-0.4797813241657241</v>
@@ -5963,13 +5963,13 @@
         <v>-0.2430995035971396</v>
       </c>
       <c r="C36">
-        <v>-0.2430996326734132</v>
+        <v>-0.255292057701359</v>
       </c>
       <c r="D36">
-        <v>-0.2383267935108065</v>
+        <v>-0.2412592173435524</v>
       </c>
       <c r="E36">
-        <v>-0.2430995629312147</v>
+        <v>-0.2320490730969453</v>
       </c>
       <c r="F36">
         <v>-0.2358489372202766</v>
@@ -6118,13 +6118,13 @@
         <v>-0.8101709853148339</v>
       </c>
       <c r="C37">
-        <v>-0.8101694219524435</v>
+        <v>-0.8251524696986997</v>
       </c>
       <c r="D37">
-        <v>-0.7665631511066823</v>
+        <v>-0.8030869831733388</v>
       </c>
       <c r="E37">
-        <v>-0.8101712120890554</v>
+        <v>-0.7812806022054697</v>
       </c>
       <c r="F37">
         <v>-0.786725678506032</v>
@@ -6273,13 +6273,13 @@
         <v>-0.955774332481045</v>
       </c>
       <c r="C38">
-        <v>-0.9557724993498081</v>
+        <v>-0.9876754773760315</v>
       </c>
       <c r="D38">
-        <v>-0.8936402486308747</v>
+        <v>-0.9473434012274231</v>
       </c>
       <c r="E38">
-        <v>-0.9557746023950767</v>
+        <v>-0.9254076138610245</v>
       </c>
       <c r="F38">
         <v>-0.9278872209802498</v>
@@ -6428,13 +6428,13 @@
         <v>-0.9670466626136659</v>
       </c>
       <c r="C39">
-        <v>-0.9670449396711261</v>
+        <v>-1.023451382482716</v>
       </c>
       <c r="D39">
-        <v>-0.9447003253981365</v>
+        <v>-0.9585110303995186</v>
       </c>
       <c r="E39">
-        <v>-0.9670469359846352</v>
+        <v>-0.9415627210570905</v>
       </c>
       <c r="F39">
         <v>-0.9389713772693208</v>
@@ -6583,13 +6583,13 @@
         <v>0.3758402731999473</v>
       </c>
       <c r="C40">
-        <v>0.3758383388184888</v>
+        <v>0.418587698298642</v>
       </c>
       <c r="D40">
-        <v>0.4285274096740078</v>
+        <v>0.3719570811486845</v>
       </c>
       <c r="E40">
-        <v>0.3758403966587336</v>
+        <v>0.3615420709870557</v>
       </c>
       <c r="F40">
         <v>0.36291157379843</v>
@@ -6738,13 +6738,13 @@
         <v>0.3835205737949182</v>
       </c>
       <c r="C41">
-        <v>0.3835192635256385</v>
+        <v>0.4292728801360066</v>
       </c>
       <c r="D41">
-        <v>0.4219266602041178</v>
+        <v>0.3795642673626203</v>
       </c>
       <c r="E41">
-        <v>0.3835207000997148</v>
+        <v>0.3704698777190241</v>
       </c>
       <c r="F41">
         <v>0.3703965487917197</v>
@@ -6893,13 +6893,13 @@
         <v>0.7226013395125163</v>
       </c>
       <c r="C42">
-        <v>0.7226008578115056</v>
+        <v>0.7193234509314015</v>
       </c>
       <c r="D42">
-        <v>0.7613392327418474</v>
+        <v>0.7155035914931314</v>
       </c>
       <c r="E42">
-        <v>0.7226015675831148</v>
+        <v>0.6947795870860186</v>
       </c>
       <c r="F42">
         <v>0.6989471810974603</v>
@@ -7048,13 +7048,13 @@
         <v>-0.2698511817423213</v>
       </c>
       <c r="C43">
-        <v>-0.2698492845907295</v>
+        <v>-0.3156900230488798</v>
       </c>
       <c r="D43">
-        <v>-0.2418241229538557</v>
+        <v>-0.2677698232332149</v>
       </c>
       <c r="E43">
-        <v>-0.2698512472359814</v>
+        <v>-0.2604616396483989</v>
       </c>
       <c r="F43">
         <v>-0.2633582700337646</v>
@@ -7203,13 +7203,13 @@
         <v>0.5137054597589504</v>
       </c>
       <c r="C44">
-        <v>0.5137061857769688</v>
+        <v>0.4183824170844823</v>
       </c>
       <c r="D44">
-        <v>0.5177235751896702</v>
+        <v>0.5085374827476616</v>
       </c>
       <c r="E44">
-        <v>0.5137056266706522</v>
+        <v>0.4937973266803214</v>
       </c>
       <c r="F44">
         <v>0.4964508813800136</v>
@@ -7358,13 +7358,13 @@
         <v>1.594028385774089</v>
       </c>
       <c r="C45">
-        <v>1.594028615639522</v>
+        <v>1.48607683217392</v>
       </c>
       <c r="D45">
-        <v>1.608724132669931</v>
+        <v>1.578861820109585</v>
       </c>
       <c r="E45">
-        <v>1.59402887411257</v>
+        <v>1.520442687341117</v>
       </c>
       <c r="F45">
         <v>1.54347455200388</v>
@@ -7513,13 +7513,13 @@
         <v>2.083484810875871</v>
       </c>
       <c r="C46">
-        <v>2.083484103728346</v>
+        <v>2.003178588377591</v>
       </c>
       <c r="D46">
-        <v>2.107192576374637</v>
+        <v>2.06379054098725</v>
       </c>
       <c r="E46">
-        <v>2.083485444205059</v>
+        <v>1.980772697107695</v>
       </c>
       <c r="F46">
         <v>2.017833450832418</v>
@@ -7668,13 +7668,13 @@
         <v>2.344776325654236</v>
       </c>
       <c r="C47">
-        <v>2.344776006015506</v>
+        <v>2.312607402982944</v>
       </c>
       <c r="D47">
-        <v>2.384232253912496</v>
+        <v>2.322662111531256</v>
       </c>
       <c r="E47">
-        <v>2.344777037178624</v>
+        <v>2.234022119637799</v>
       </c>
       <c r="F47">
         <v>2.271129892966363</v>
@@ -7823,13 +7823,13 @@
         <v>0.8393966838933561</v>
       </c>
       <c r="C48">
-        <v>0.8393969831311661</v>
+        <v>0.7423288215927401</v>
       </c>
       <c r="D48">
-        <v>0.8105898943832476</v>
+        <v>0.8312152716671403</v>
       </c>
       <c r="E48">
-        <v>0.8393969474597277</v>
+        <v>0.8074895324691881</v>
       </c>
       <c r="F48">
         <v>0.8116464061000209</v>
@@ -7978,13 +7978,13 @@
         <v>-0.1256061658915601</v>
       </c>
       <c r="C49">
-        <v>-0.1256068658366511</v>
+        <v>-0.1250085043873634</v>
       </c>
       <c r="D49">
-        <v>-0.1092592990251193</v>
+        <v>-0.1248516289050594</v>
       </c>
       <c r="E49">
-        <v>-0.1256061907299731</v>
+        <v>-0.119471297852505</v>
       </c>
       <c r="F49">
         <v>-0.1225225354294181</v>
@@ -8133,13 +8133,13 @@
         <v>-0.9554171776151067</v>
       </c>
       <c r="C50">
-        <v>-0.955419083611175</v>
+        <v>-0.9516881166947752</v>
       </c>
       <c r="D50">
-        <v>-0.8693918307732462</v>
+        <v>-0.9469774482257507</v>
       </c>
       <c r="E50">
-        <v>-0.9554174507642746</v>
+        <v>-0.9184020787824939</v>
       </c>
       <c r="F50">
         <v>-0.9272633043566199</v>
@@ -8288,13 +8288,13 @@
         <v>-0.8604221354786087</v>
       </c>
       <c r="C51">
-        <v>-0.8604245497148771</v>
+        <v>-0.8739363687864342</v>
       </c>
       <c r="D51">
-        <v>-0.8006591654366474</v>
+        <v>-0.8528600987574202</v>
       </c>
       <c r="E51">
-        <v>-0.8604223807792617</v>
+        <v>-0.827001860772297</v>
       </c>
       <c r="F51">
         <v>-0.8351879236699233</v>
@@ -8443,13 +8443,13 @@
         <v>-0.7215834294289266</v>
       </c>
       <c r="C52">
-        <v>-0.7215872629793053</v>
+        <v>-0.7320397800162977</v>
       </c>
       <c r="D52">
-        <v>-0.6806581126133505</v>
+        <v>-0.7153019824804415</v>
       </c>
       <c r="E52">
-        <v>-0.7215836346325329</v>
+        <v>-0.6943021765845282</v>
       </c>
       <c r="F52">
         <v>-0.7005246297929242</v>
@@ -8598,13 +8598,13 @@
         <v>-1.002858502108559</v>
       </c>
       <c r="C53">
-        <v>-1.002859465453291</v>
+        <v>-1.044521823491443</v>
       </c>
       <c r="D53">
-        <v>-1.002568921356267</v>
+        <v>-0.9939826754729399</v>
       </c>
       <c r="E53">
-        <v>-1.002858788549921</v>
+        <v>-0.9693841668333387</v>
       </c>
       <c r="F53">
         <v>-0.9734724210885612</v>
@@ -8753,13 +8753,13 @@
         <v>-0.2563947976749276</v>
       </c>
       <c r="C54">
-        <v>-0.2563959001685987</v>
+        <v>-0.2428784379095458</v>
       </c>
       <c r="D54">
-        <v>-0.2439918690058959</v>
+        <v>-0.2544282901270247</v>
       </c>
       <c r="E54">
-        <v>-0.2563948618401016</v>
+        <v>-0.2456347672774509</v>
       </c>
       <c r="F54">
         <v>-0.2493881542195227</v>
@@ -8908,13 +8908,13 @@
         <v>0.8733546472438727</v>
       </c>
       <c r="C55">
-        <v>0.8733548940956827</v>
+        <v>0.8047770121829595</v>
       </c>
       <c r="D55">
-        <v>0.8365545123227193</v>
+        <v>0.8648590668778068</v>
       </c>
       <c r="E55">
-        <v>0.8733549208808252</v>
+        <v>0.8400314273965244</v>
       </c>
       <c r="F55">
         <v>0.8446369344331822</v>
@@ -9063,13 +9063,13 @@
         <v>1.618380443393905</v>
       </c>
       <c r="C56">
-        <v>1.618381362361713</v>
+        <v>1.491200839044807</v>
       </c>
       <c r="D56">
-        <v>1.569450105600897</v>
+        <v>1.602986227980443</v>
       </c>
       <c r="E56">
-        <v>1.618380939603641</v>
+        <v>1.549638374437909</v>
       </c>
       <c r="F56">
         <v>1.567012801690093</v>
@@ -9218,13 +9218,13 @@
         <v>1.827628170735839</v>
       </c>
       <c r="C57">
-        <v>1.827628315334944</v>
+        <v>1.736448829980986</v>
       </c>
       <c r="D57">
-        <v>1.797509203554662</v>
+        <v>1.810299524546754</v>
       </c>
       <c r="E57">
-        <v>1.827628728596574</v>
+        <v>1.748053284249455</v>
       </c>
       <c r="F57">
         <v>1.769824433661085</v>
@@ -9373,13 +9373,13 @@
         <v>1.345296227383159</v>
       </c>
       <c r="C58">
-        <v>1.345296306129082</v>
+        <v>1.253416307977672</v>
       </c>
       <c r="D58">
-        <v>1.349988002789689</v>
+        <v>1.332432582879719</v>
       </c>
       <c r="E58">
-        <v>1.345296641479614</v>
+        <v>1.289596128333999</v>
       </c>
       <c r="F58">
         <v>1.302357237387025</v>
@@ -9528,13 +9528,13 @@
         <v>0.728937255497652</v>
       </c>
       <c r="C59">
-        <v>0.7289367470918905</v>
+        <v>0.6426227743981898</v>
       </c>
       <c r="D59">
-        <v>0.7276123438697766</v>
+        <v>0.721780944431212</v>
       </c>
       <c r="E59">
-        <v>0.728937485432101</v>
+        <v>0.6985878355400293</v>
       </c>
       <c r="F59">
         <v>0.7047501654805768</v>
@@ -9683,13 +9683,13 @@
         <v>-0.494011231275164</v>
       </c>
       <c r="C60">
-        <v>-0.4940107624874439</v>
+        <v>-0.5506628215857841</v>
       </c>
       <c r="D60">
-        <v>-0.4507442859990031</v>
+        <v>-0.4898502728919225</v>
       </c>
       <c r="E60">
-        <v>-0.4940113648312989</v>
+        <v>-0.473451375109252</v>
       </c>
       <c r="F60">
         <v>-0.4800951823213979</v>
@@ -9838,13 +9838,13 @@
         <v>0.1753681691194294</v>
       </c>
       <c r="C61">
-        <v>0.1753678041220974</v>
+        <v>0.1211928156847434</v>
       </c>
       <c r="D61">
-        <v>0.1734938283735787</v>
+        <v>0.1733356011769712</v>
       </c>
       <c r="E61">
-        <v>0.1753682342522982</v>
+        <v>0.1701077512077447</v>
       </c>
       <c r="F61">
         <v>0.169416776138658</v>
@@ -9993,13 +9993,13 @@
         <v>0.6881992331497547</v>
       </c>
       <c r="C62">
-        <v>0.688199879648634</v>
+        <v>0.5876123362951626</v>
       </c>
       <c r="D62">
-        <v>0.6727152521449008</v>
+        <v>0.6814162819608891</v>
       </c>
       <c r="E62">
-        <v>0.6881994519788677</v>
+        <v>0.6637437182692147</v>
       </c>
       <c r="F62">
         <v>0.6627496246498543</v>
@@ -10148,13 +10148,13 @@
         <v>0.8984618078654335</v>
       </c>
       <c r="C63">
-        <v>0.8984631164779809</v>
+        <v>0.7353274374938938</v>
       </c>
       <c r="D63">
-        <v>0.9137496089338196</v>
+        <v>0.8897303816502286</v>
       </c>
       <c r="E63">
-        <v>0.8984620899316487</v>
+        <v>0.8631364668448132</v>
       </c>
       <c r="F63">
         <v>0.8695190757570224</v>
@@ -10303,13 +10303,13 @@
         <v>-0.1277776250868504</v>
       </c>
       <c r="C64">
-        <v>-0.1277748892839768</v>
+        <v>-0.2218333127390271</v>
       </c>
       <c r="D64">
-        <v>-0.08351551871596424</v>
+        <v>-0.127014109724985</v>
       </c>
       <c r="E64">
-        <v>-0.1277776475017999</v>
+        <v>-0.1185242770363955</v>
       </c>
       <c r="F64">
         <v>-0.1253230313291313</v>
@@ -10458,13 +10458,13 @@
         <v>1.86975332746007</v>
       </c>
       <c r="C65">
-        <v>1.86975388328733</v>
+        <v>1.844113824627409</v>
       </c>
       <c r="D65">
-        <v>1.945315326713248</v>
+        <v>1.852033411303267</v>
       </c>
       <c r="E65">
-        <v>1.869753898239027</v>
+        <v>1.775522898541426</v>
       </c>
       <c r="F65">
         <v>1.810794850107454</v>
@@ -10613,13 +10613,13 @@
         <v>1.949028008946701</v>
       </c>
       <c r="C66">
-        <v>1.949028465232109</v>
+        <v>1.937550652973413</v>
       </c>
       <c r="D66">
-        <v>2.026598941808041</v>
+        <v>1.930574595313977</v>
       </c>
       <c r="E66">
-        <v>1.949028603255708</v>
+        <v>1.848941748011532</v>
       </c>
       <c r="F66">
         <v>1.887623627191227</v>
@@ -10768,13 +10768,13 @@
         <v>2.155688722394618</v>
       </c>
       <c r="C67">
-        <v>2.155689542448897</v>
+        <v>2.062727110715392</v>
       </c>
       <c r="D67">
-        <v>2.214137022276544</v>
+        <v>2.135321140776905</v>
       </c>
       <c r="E67">
-        <v>2.155689378600972</v>
+        <v>2.045906679968859</v>
       </c>
       <c r="F67">
         <v>2.087934499566715</v>
@@ -10923,13 +10923,13 @@
         <v>0.4701090244267573</v>
       </c>
       <c r="C68">
-        <v>0.4701110991597241</v>
+        <v>0.3735986772796144</v>
       </c>
       <c r="D68">
-        <v>0.4631869159238838</v>
+        <v>0.4653402392865117</v>
       </c>
       <c r="E68">
-        <v>0.4701091795546933</v>
+        <v>0.4547860497635387</v>
       </c>
       <c r="F68">
         <v>0.4544654958247547</v>
@@ -11078,13 +11078,13 @@
         <v>0.390319682316482</v>
       </c>
       <c r="C69">
-        <v>0.3903215832151682</v>
+        <v>0.2954511434737029</v>
       </c>
       <c r="D69">
-        <v>0.4038582114526384</v>
+        <v>0.3862900436624203</v>
       </c>
       <c r="E69">
-        <v>0.3903198135167223</v>
+        <v>0.3778993301610393</v>
       </c>
       <c r="F69">
         <v>0.3768908921799153</v>
@@ -11233,13 +11233,13 @@
         <v>0.01275822402547058</v>
       </c>
       <c r="C70">
-        <v>0.01275969254704187</v>
+        <v>-0.01494712518755394</v>
       </c>
       <c r="D70">
-        <v>0.0314592218997673</v>
+        <v>0.0122249475618045</v>
       </c>
       <c r="E70">
-        <v>0.01275824234907959</v>
+        <v>0.01304053340200748</v>
       </c>
       <c r="F70">
         <v>0.01056021596873213</v>
@@ -11388,13 +11388,13 @@
         <v>0.0942056225518481</v>
       </c>
       <c r="C71">
-        <v>0.09420613365059045</v>
+        <v>0.08435411318088823</v>
       </c>
       <c r="D71">
-        <v>0.1010899441447877</v>
+        <v>0.09292151359261402</v>
       </c>
       <c r="E71">
-        <v>0.09420566428618157</v>
+        <v>0.09237283811798416</v>
       </c>
       <c r="F71">
         <v>0.09063811269477634</v>
@@ -11543,13 +11543,13 @@
         <v>0.7152211406882031</v>
       </c>
       <c r="C72">
-        <v>0.7152208906287626</v>
+        <v>0.6173071729790147</v>
       </c>
       <c r="D72">
-        <v>0.740055746924296</v>
+        <v>0.7081909588835109</v>
       </c>
       <c r="E72">
-        <v>0.7152213667669649</v>
+        <v>0.6847068390861509</v>
       </c>
       <c r="F72">
         <v>0.6917767626836777</v>
@@ -11698,13 +11698,13 @@
         <v>0.6230334081272743</v>
       </c>
       <c r="C73">
-        <v>0.6230315417338509</v>
+        <v>0.5289515665796376</v>
       </c>
       <c r="D73">
-        <v>0.6518272820165854</v>
+        <v>0.6168618102610185</v>
       </c>
       <c r="E73">
-        <v>0.6230336052952591</v>
+        <v>0.5903582613853487</v>
       </c>
       <c r="F73">
         <v>0.6018611907895759</v>
@@ -11853,13 +11853,13 @@
         <v>0.646329502947706</v>
       </c>
       <c r="C74">
-        <v>0.6463286760540082</v>
+        <v>0.4402191333173687</v>
       </c>
       <c r="D74">
-        <v>0.6009833566640784</v>
+        <v>0.6399388957368166</v>
       </c>
       <c r="E74">
-        <v>0.6463297079854725</v>
+        <v>0.6159446247682212</v>
       </c>
       <c r="F74">
         <v>0.6383680359371352</v>
@@ -12008,13 +12008,13 @@
         <v>0.3384773363923522</v>
       </c>
       <c r="C75">
-        <v>0.3384763947626452</v>
+        <v>0.2231000148386561</v>
       </c>
       <c r="D75">
-        <v>0.3256317631207222</v>
+        <v>0.3349367870763749</v>
       </c>
       <c r="E75">
-        <v>0.3384774496064605</v>
+        <v>0.324780985324585</v>
       </c>
       <c r="F75">
         <v>0.3282881410909396</v>
@@ -12163,13 +12163,13 @@
         <v>-0.172003148880588</v>
       </c>
       <c r="C76">
-        <v>-0.1720009343230675</v>
+        <v>-0.2542127448579455</v>
       </c>
       <c r="D76">
-        <v>-0.1160031115362925</v>
+        <v>-0.1708285649976662</v>
       </c>
       <c r="E76">
-        <v>-0.1720031849378609</v>
+        <v>-0.1658668631929012</v>
       </c>
       <c r="F76">
         <v>-0.1682427895971362</v>
@@ -12318,13 +12318,13 @@
         <v>0.4370176013034293</v>
       </c>
       <c r="C77">
-        <v>0.4370171702407493</v>
+        <v>0.3821022339467148</v>
       </c>
       <c r="D77">
-        <v>0.4277782074071225</v>
+        <v>0.4325632443005149</v>
       </c>
       <c r="E77">
-        <v>0.4370177443327898</v>
+        <v>0.4211519026063716</v>
       </c>
       <c r="F77">
         <v>0.4207441849216624</v>
@@ -12473,13 +12473,13 @@
         <v>-0.4595270370715826</v>
       </c>
       <c r="C78">
-        <v>-0.4595272214844574</v>
+        <v>-0.4539159640885037</v>
       </c>
       <c r="D78">
-        <v>-0.4466034993074285</v>
+        <v>-0.4556831730338493</v>
       </c>
       <c r="E78">
-        <v>-0.459527160937282</v>
+        <v>-0.4415338629541748</v>
       </c>
       <c r="F78">
         <v>-0.4466069740607729</v>
@@ -12628,13 +12628,13 @@
         <v>-0.01987879734620283</v>
       </c>
       <c r="C79">
-        <v>-0.01987908841175051</v>
+        <v>-0.04297178762303158</v>
       </c>
       <c r="D79">
-        <v>-0.01345573186030538</v>
+        <v>-0.02010426752635801</v>
       </c>
       <c r="E79">
-        <v>-0.01987879031892115</v>
+        <v>-0.01789089318512727</v>
       </c>
       <c r="F79">
         <v>-0.02353927950107119</v>
@@ -12783,13 +12783,13 @@
         <v>0.6248163717991283</v>
       </c>
       <c r="C80">
-        <v>0.6248182483774902</v>
+        <v>0.5260518003706547</v>
       </c>
       <c r="D80">
-        <v>0.6494826675489616</v>
+        <v>0.6186161529769336</v>
       </c>
       <c r="E80">
-        <v>0.6248165728433096</v>
+        <v>0.6028172839385374</v>
       </c>
       <c r="F80">
         <v>0.6049011903235735</v>
@@ -12938,13 +12938,13 @@
         <v>1.328716608726084</v>
       </c>
       <c r="C81">
-        <v>1.328718500784454</v>
+        <v>1.186063852404969</v>
       </c>
       <c r="D81">
-        <v>1.370532784978596</v>
+        <v>1.316000566305753</v>
       </c>
       <c r="E81">
-        <v>1.32871701950333</v>
+        <v>1.275563036029198</v>
       </c>
       <c r="F81">
         <v>1.286538659042875</v>
@@ -13093,13 +13093,13 @@
         <v>1.23447798946863</v>
       </c>
       <c r="C82">
-        <v>1.234479407299254</v>
+        <v>1.158222768051846</v>
       </c>
       <c r="D82">
-        <v>1.335882660930816</v>
+        <v>1.22263581817661</v>
       </c>
       <c r="E82">
-        <v>1.234478371744727</v>
+        <v>1.187278174781047</v>
       </c>
       <c r="F82">
         <v>1.195419021374974</v>
@@ -13248,13 +13248,13 @@
         <v>-0.3948353755296813</v>
       </c>
       <c r="C83">
-        <v>-0.3948325689937437</v>
+        <v>-0.4240857114721407</v>
       </c>
       <c r="D83">
-        <v>-0.3645984911198774</v>
+        <v>-0.3916000231903474</v>
       </c>
       <c r="E83">
-        <v>-0.3948354774482993</v>
+        <v>-0.3791254342465317</v>
       </c>
       <c r="F83">
         <v>-0.3852108335999007</v>
@@ -13403,13 +13403,13 @@
         <v>-0.2049309570232992</v>
       </c>
       <c r="C84">
-        <v>-0.2049287172290479</v>
+        <v>-0.2379636208207484</v>
       </c>
       <c r="D84">
-        <v>-0.1860684729937905</v>
+        <v>-0.2034516529223332</v>
       </c>
       <c r="E84">
-        <v>-0.2049310028684923</v>
+        <v>-0.1949443507687479</v>
       </c>
       <c r="F84">
         <v>-0.2092408373743516</v>
@@ -13558,13 +13558,13 @@
         <v>-0.9148288166172583</v>
       </c>
       <c r="C85">
-        <v>-0.9148265163654737</v>
+        <v>-0.94237377311923</v>
       </c>
       <c r="D85">
-        <v>-0.9513154389811972</v>
+        <v>-0.9067784167163755</v>
       </c>
       <c r="E85">
-        <v>-0.9148290739145784</v>
+        <v>-0.8793471729093204</v>
       </c>
       <c r="F85">
         <v>-0.8893143287894101</v>
@@ -13713,13 +13713,13 @@
         <v>-0.3826011905511135</v>
       </c>
       <c r="C86">
-        <v>-0.3825989962205292</v>
+        <v>-0.3944196230730213</v>
       </c>
       <c r="D86">
-        <v>-0.3923178749037921</v>
+        <v>-0.3794771042325986</v>
       </c>
       <c r="E86">
-        <v>-0.3826012893718022</v>
+        <v>-0.365043484921809</v>
       </c>
       <c r="F86">
         <v>-0.3693527450344378</v>
@@ -13868,13 +13868,13 @@
         <v>-1.489460539206712</v>
       </c>
       <c r="C87">
-        <v>-1.489456529273728</v>
+        <v>-1.44568318440334</v>
       </c>
       <c r="D87">
-        <v>-1.515382728518945</v>
+        <v>-1.476096496566361</v>
       </c>
       <c r="E87">
-        <v>-1.489460966181259</v>
+        <v>-1.434212614935242</v>
       </c>
       <c r="F87">
         <v>-1.446010227327294</v>
@@ -14023,13 +14023,13 @@
         <v>-1.278754227052889</v>
       </c>
       <c r="C88">
-        <v>-1.278748983929985</v>
+        <v>-1.197841795561652</v>
       </c>
       <c r="D88">
-        <v>-1.285225083698595</v>
+        <v>-1.267344615643209</v>
       </c>
       <c r="E88">
-        <v>-1.278754590147773</v>
+        <v>-1.228570273735029</v>
       </c>
       <c r="F88">
         <v>-1.242895798193284</v>
@@ -14178,13 +14178,13 @@
         <v>-0.7054305221650007</v>
       </c>
       <c r="C89">
-        <v>-0.7054278150651881</v>
+        <v>-0.7035395158885788</v>
       </c>
       <c r="D89">
-        <v>-0.7075338057226251</v>
+        <v>-0.6993197705927174</v>
       </c>
       <c r="E89">
-        <v>-0.7054307167108445</v>
+        <v>-0.6779723757769747</v>
       </c>
       <c r="F89">
         <v>-0.6863681642700081</v>
@@ -14333,13 +14333,13 @@
         <v>-0.593046630949001</v>
       </c>
       <c r="C90">
-        <v>-0.5930438492181551</v>
+        <v>-0.604558636332906</v>
       </c>
       <c r="D90">
-        <v>-0.5852309588922685</v>
+        <v>-0.587976421769016</v>
       </c>
       <c r="E90">
-        <v>-0.5930467919446213</v>
+        <v>-0.5706054428247026</v>
       </c>
       <c r="F90">
         <v>-0.5775260217734017</v>
@@ -14488,13 +14488,13 @@
         <v>0.3625811985211031</v>
       </c>
       <c r="C91">
-        <v>0.362583368162785</v>
+        <v>0.3141998902350692</v>
       </c>
       <c r="D91">
-        <v>0.4140234151086203</v>
+        <v>0.3588074559407875</v>
       </c>
       <c r="E91">
-        <v>0.3625813216971389</v>
+        <v>0.3511791106075152</v>
       </c>
       <c r="F91">
         <v>0.3516988245845564</v>
@@ -14643,13 +14643,13 @@
         <v>0.6672327215319943</v>
       </c>
       <c r="C92">
-        <v>0.6672353577038374</v>
+        <v>0.6092327291149681</v>
       </c>
       <c r="D92">
-        <v>0.7566135925613446</v>
+        <v>0.6606374095452169</v>
       </c>
       <c r="E92">
-        <v>0.6672329358924802</v>
+        <v>0.6443372508190743</v>
       </c>
       <c r="F92">
         <v>0.6466703669427117</v>
@@ -14798,13 +14798,13 @@
         <v>0.6970541469885292</v>
       </c>
       <c r="C93">
-        <v>0.6970565465138888</v>
+        <v>0.6342837282322814</v>
       </c>
       <c r="D93">
-        <v>0.7897829438404079</v>
+        <v>0.6901835539186745</v>
       </c>
       <c r="E93">
-        <v>0.6970543700224926</v>
+        <v>0.6728453819444183</v>
       </c>
       <c r="F93">
         <v>0.6755438268090127</v>
@@ -14953,13 +14953,13 @@
         <v>0.4423457359832524</v>
       </c>
       <c r="C94">
-        <v>0.4423477566420393</v>
+        <v>0.3972468181901891</v>
       </c>
       <c r="D94">
-        <v>0.4981266002025274</v>
+        <v>0.4378341215402128</v>
       </c>
       <c r="E94">
-        <v>0.4423458827911016</v>
+        <v>0.4278872884403234</v>
       </c>
       <c r="F94">
         <v>0.4288946400050524</v>
@@ -15108,13 +15108,13 @@
         <v>0.273715567372849</v>
       </c>
       <c r="C95">
-        <v>0.273717816686129</v>
+        <v>0.2300847270267722</v>
       </c>
       <c r="D95">
-        <v>0.3256540326148546</v>
+        <v>0.2707641668653482</v>
       </c>
       <c r="E95">
-        <v>0.2737156641435605</v>
+        <v>0.2657352745251745</v>
       </c>
       <c r="F95">
         <v>0.2661313318843657</v>
@@ -15263,13 +15263,13 @@
         <v>-0.3575739030369521</v>
       </c>
       <c r="C96">
-        <v>-0.3575715607492396</v>
+        <v>-0.3887659360503674</v>
       </c>
       <c r="D96">
-        <v>-0.3461557185514935</v>
+        <v>-0.3546819650682677</v>
       </c>
       <c r="E96">
-        <v>-0.3575739942688145</v>
+        <v>-0.3421716981054181</v>
       </c>
       <c r="F96">
         <v>-0.3506397251488171</v>
@@ -15418,13 +15418,13 @@
         <v>-1.123791255686063</v>
       </c>
       <c r="C97">
-        <v>-1.123788832738037</v>
+        <v>-1.152562578171491</v>
       </c>
       <c r="D97">
-        <v>-1.171001979868056</v>
+        <v>-1.113806956253115</v>
       </c>
       <c r="E97">
-        <v>-1.123791575131762</v>
+        <v>-1.08155021391799</v>
       </c>
       <c r="F97">
         <v>-1.091582772421951</v>
@@ -15573,13 +15573,13 @@
         <v>-0.762649764622454</v>
       </c>
       <c r="C98">
-        <v>-0.7626472573583546</v>
+        <v>-0.7668632560477872</v>
       </c>
       <c r="D98">
-        <v>-0.794454195823954</v>
+        <v>-0.7560087063982698</v>
       </c>
       <c r="E98">
-        <v>-0.7626499763947205</v>
+        <v>-0.7314157974543509</v>
       </c>
       <c r="F98">
         <v>-0.745280890970542</v>
@@ -15728,13 +15728,13 @@
         <v>-0.176692624391764</v>
       </c>
       <c r="C99">
-        <v>-0.1766905607410038</v>
+        <v>-0.1880979766555269</v>
       </c>
       <c r="D99">
-        <v>-0.1756728182425621</v>
+        <v>-0.1754741430617753</v>
       </c>
       <c r="E99">
-        <v>-0.1766926619810748</v>
+        <v>-0.1669674458485797</v>
       </c>
       <c r="F99">
         <v>-0.1714980020601745</v>
@@ -15883,13 +15883,13 @@
         <v>0.0587414875457641</v>
       </c>
       <c r="C100">
-        <v>0.05874419057615264</v>
+        <v>0.04701752319563251</v>
       </c>
       <c r="D100">
-        <v>0.06740651417219057</v>
+        <v>0.0577785627841815</v>
       </c>
       <c r="E100">
-        <v>0.05874152067281773</v>
+        <v>0.05980750453720442</v>
       </c>
       <c r="F100">
         <v>0.05603248697720905</v>
@@ -16038,13 +16038,13 @@
         <v>-0.1893774779888143</v>
       </c>
       <c r="C101">
-        <v>-0.1893752641808509</v>
+        <v>-0.2040609452420336</v>
       </c>
       <c r="D101">
-        <v>-0.1805889993614768</v>
+        <v>-0.1880420632168136</v>
       </c>
       <c r="E101">
-        <v>-0.1893775192232449</v>
+        <v>-0.1798860962369342</v>
       </c>
       <c r="F101">
         <v>-0.1798496525770267</v>
@@ -16193,13 +16193,13 @@
         <v>-0.4589171461793257</v>
       </c>
       <c r="C102">
-        <v>-0.4589144580791095</v>
+        <v>-0.4714980848690992</v>
       </c>
       <c r="D102">
-        <v>-0.4475039694077605</v>
+        <v>-0.4550882265226031</v>
       </c>
       <c r="E102">
-        <v>-0.4589172672962356</v>
+        <v>-0.4407813792190545</v>
       </c>
       <c r="F102">
         <v>-0.4480211493049585</v>
@@ -16348,13 +16348,13 @@
         <v>-1.046922221200892</v>
       </c>
       <c r="C103">
-        <v>-1.046919396187197</v>
+        <v>-1.079399188797008</v>
       </c>
       <c r="D103">
-        <v>-1.043574592072127</v>
+        <v>-1.037650774749269</v>
       </c>
       <c r="E103">
-        <v>-1.046922517385005</v>
+        <v>-1.012744188723155</v>
       </c>
       <c r="F103">
         <v>-1.016715965474664</v>
@@ -16503,13 +16503,13 @@
         <v>-1.615951453268716</v>
       </c>
       <c r="C104">
-        <v>-1.615948336409986</v>
+        <v>-1.670710116794829</v>
       </c>
       <c r="D104">
-        <v>-1.607222602706331</v>
+        <v>-1.601413634713125</v>
       </c>
       <c r="E104">
-        <v>-1.615951918727935</v>
+        <v>-1.568283123207069</v>
       </c>
       <c r="F104">
         <v>-1.56807350391948</v>
@@ -16658,13 +16658,13 @@
         <v>-1.842006395105646</v>
       </c>
       <c r="C105">
-        <v>-1.842002457294847</v>
+        <v>-1.889383449106632</v>
       </c>
       <c r="D105">
-        <v>-1.806763330813744</v>
+        <v>-1.825378717704056</v>
       </c>
       <c r="E105">
-        <v>-1.842006927181755</v>
+        <v>-1.789734549226617</v>
       </c>
       <c r="F105">
         <v>-1.787180285661297</v>
@@ -16813,13 +16813,13 @@
         <v>-0.4426431361208867</v>
       </c>
       <c r="C106">
-        <v>-0.4426403298952535</v>
+        <v>-0.4688772645966801</v>
       </c>
       <c r="D106">
-        <v>-0.4137441329174543</v>
+        <v>-0.4389652420268415</v>
       </c>
       <c r="E106">
-        <v>-0.4426432522835715</v>
+        <v>-0.4263389140855898</v>
       </c>
       <c r="F106">
         <v>-0.4313995510184713</v>
@@ -16968,13 +16968,13 @@
         <v>-0.529281453767583</v>
       </c>
       <c r="C107">
-        <v>-0.5292785263051819</v>
+        <v>-0.5569605901892003</v>
       </c>
       <c r="D107">
-        <v>-0.5006723093462925</v>
+        <v>-0.5248019696644812</v>
       </c>
       <c r="E107">
-        <v>-0.5292815956348434</v>
+        <v>-0.5092236414908571</v>
       </c>
       <c r="F107">
         <v>-0.5153024780719754</v>
@@ -17123,13 +17123,13 @@
         <v>0.7230712191133436</v>
       </c>
       <c r="C108">
-        <v>0.7230728910524912</v>
+        <v>0.670964099433689</v>
       </c>
       <c r="D108">
-        <v>0.8085803597811224</v>
+        <v>0.715962149867411</v>
       </c>
       <c r="E108">
-        <v>0.7230714492485817</v>
+        <v>0.6965962237821257</v>
       </c>
       <c r="F108">
         <v>0.6999473885981687</v>
@@ -17278,13 +17278,13 @@
         <v>1.342710017990555</v>
       </c>
       <c r="C109">
-        <v>1.342711385459674</v>
+        <v>1.27107763592263</v>
       </c>
       <c r="D109">
-        <v>1.476445247478725</v>
+        <v>1.329866141359073</v>
       </c>
       <c r="E109">
-        <v>1.342710432468172</v>
+        <v>1.28734706636913</v>
       </c>
       <c r="F109">
         <v>1.300237279347032</v>
@@ -17433,13 +17433,13 @@
         <v>1.604567498105988</v>
       </c>
       <c r="C110">
-        <v>1.604568488053982</v>
+        <v>1.532453182851149</v>
       </c>
       <c r="D110">
-        <v>1.742650805111248</v>
+        <v>1.589300914818788</v>
       </c>
       <c r="E110">
-        <v>1.604567990263743</v>
+        <v>1.535533070271289</v>
       </c>
       <c r="F110">
         <v>1.553943866837316</v>
@@ -17588,13 +17588,13 @@
         <v>1.100418993901209</v>
       </c>
       <c r="C111">
-        <v>1.100420302276404</v>
+        <v>1.017005830449726</v>
       </c>
       <c r="D111">
-        <v>1.163459953848941</v>
+        <v>1.089818117061697</v>
       </c>
       <c r="E111">
-        <v>1.100419336138105</v>
+        <v>1.055483531433665</v>
       </c>
       <c r="F111">
         <v>1.065287111861664</v>
@@ -17743,13 +17743,13 @@
         <v>1.600925942305886</v>
       </c>
       <c r="C112">
-        <v>1.600927822917915</v>
+        <v>1.498699717029012</v>
       </c>
       <c r="D112">
-        <v>1.659408062001468</v>
+        <v>1.585690184472274</v>
       </c>
       <c r="E112">
-        <v>1.600926434174641</v>
+        <v>1.533791225171849</v>
       </c>
       <c r="F112">
         <v>1.550328235933696</v>
@@ -17898,13 +17898,13 @@
         <v>1.80421505349407</v>
       </c>
       <c r="C113">
-        <v>1.804216678590793</v>
+        <v>1.708990806705642</v>
       </c>
       <c r="D113">
-        <v>1.868991946281906</v>
+        <v>1.787098342220968</v>
       </c>
       <c r="E113">
-        <v>1.804215605702203</v>
+        <v>1.726927701072584</v>
       </c>
       <c r="F113">
         <v>1.747340081320347</v>
@@ -18053,13 +18053,13 @@
         <v>1.695779368323542</v>
       </c>
       <c r="C114">
-        <v>1.695781211195355</v>
+        <v>1.598310523517529</v>
       </c>
       <c r="D114">
-        <v>1.793277216765902</v>
+        <v>1.679665705625961</v>
       </c>
       <c r="E114">
-        <v>1.69577988841909</v>
+        <v>1.624304126572953</v>
       </c>
       <c r="F114">
         <v>1.642316080317383</v>
@@ -18208,13 +18208,13 @@
         <v>0.5479878588125281</v>
       </c>
       <c r="C115">
-        <v>0.5479899727195718</v>
+        <v>0.4901714863019302</v>
       </c>
       <c r="D115">
-        <v>0.6088997003520128</v>
+        <v>0.5424980480474577</v>
       </c>
       <c r="E115">
-        <v>0.5479880371786037</v>
+        <v>0.5293217368467064</v>
       </c>
       <c r="F115">
         <v>0.5306601668620129</v>
@@ -18363,13 +18363,13 @@
         <v>0.4520227347436518</v>
       </c>
       <c r="C116">
-        <v>0.4520253760453516</v>
+        <v>0.4014494362293998</v>
       </c>
       <c r="D116">
-        <v>0.5292899470971071</v>
+        <v>0.4474195343705518</v>
       </c>
       <c r="E116">
-        <v>0.4520228849893051</v>
+        <v>0.4374027333407682</v>
       </c>
       <c r="F116">
         <v>0.4404803782849965</v>
@@ -18518,13 +18518,13 @@
         <v>1.176960845631505</v>
       </c>
       <c r="C117">
-        <v>1.176963088667297</v>
+        <v>1.095855127207737</v>
       </c>
       <c r="D117">
-        <v>1.299276389849656</v>
+        <v>1.165648420332255</v>
       </c>
       <c r="E117">
-        <v>1.176961211508471</v>
+        <v>1.132652704682871</v>
       </c>
       <c r="F117">
         <v>1.139862294122738</v>
@@ -18673,13 +18673,13 @@
         <v>1.555160164028455</v>
       </c>
       <c r="C118">
-        <v>1.555161356621127</v>
+        <v>1.470100972514778</v>
       </c>
       <c r="D118">
-        <v>1.680312179438767</v>
+        <v>1.540350272222438</v>
       </c>
       <c r="E118">
-        <v>1.555160641646944</v>
+        <v>1.493259072867927</v>
       </c>
       <c r="F118">
         <v>1.50614077049841</v>
@@ -18828,13 +18828,13 @@
         <v>1.35312762554778</v>
       </c>
       <c r="C119">
-        <v>1.353129091564473</v>
+        <v>1.282211940841947</v>
       </c>
       <c r="D119">
-        <v>1.485528649883707</v>
+        <v>1.34018699752648</v>
       </c>
       <c r="E119">
-        <v>1.353128043217277</v>
+        <v>1.299328756019157</v>
       </c>
       <c r="F119">
         <v>1.310382880311261</v>
@@ -18983,13 +18983,13 @@
         <v>0.5300898282297217</v>
       </c>
       <c r="C120">
-        <v>0.5300916113678957</v>
+        <v>0.4821339121564043</v>
       </c>
       <c r="D120">
-        <v>0.5987832846496337</v>
+        <v>0.5247667644159461</v>
       </c>
       <c r="E120">
-        <v>0.5300900009676802</v>
+        <v>0.5117049251117586</v>
       </c>
       <c r="F120">
         <v>0.5130749076155591</v>
@@ -19138,13 +19138,13 @@
         <v>1.467113925900153</v>
       </c>
       <c r="C121">
-        <v>1.467115256040644</v>
+        <v>1.396355860967681</v>
       </c>
       <c r="D121">
-        <v>1.61245512073217</v>
+        <v>1.453118603959348</v>
       </c>
       <c r="E121">
-        <v>1.467114377409169</v>
+        <v>1.405748507957165</v>
       </c>
       <c r="F121">
         <v>1.42079171144585</v>
@@ -19293,13 +19293,13 @@
         <v>1.539164027654629</v>
       </c>
       <c r="C122">
-        <v>1.539165049575715</v>
+        <v>1.466336674727188</v>
       </c>
       <c r="D122">
-        <v>1.671825006969526</v>
+        <v>1.524502759326809</v>
       </c>
       <c r="E122">
-        <v>1.539164500354723</v>
+        <v>1.473407331574164</v>
       </c>
       <c r="F122">
         <v>1.490560264197901</v>
@@ -19448,13 +19448,13 @@
         <v>1.922216350220874</v>
       </c>
       <c r="C123">
-        <v>1.922217396498158</v>
+        <v>1.835845337008773</v>
       </c>
       <c r="D123">
-        <v>2.025594586594583</v>
+        <v>1.904009213408264</v>
       </c>
       <c r="E123">
-        <v>1.922216937068904</v>
+        <v>1.835131223926715</v>
       </c>
       <c r="F123">
         <v>1.861719299347687</v>
@@ -19603,13 +19603,13 @@
         <v>0.4725613328933091</v>
       </c>
       <c r="C124">
-        <v>0.4725636959515981</v>
+        <v>0.431917010424876</v>
       </c>
       <c r="D124">
-        <v>0.4940199927637955</v>
+        <v>0.4677689141795059</v>
       </c>
       <c r="E124">
-        <v>0.4725614890095509</v>
+        <v>0.4568834717154674</v>
       </c>
       <c r="F124">
         <v>0.4568772732567955</v>
@@ -19758,13 +19758,13 @@
         <v>0.925402512396173</v>
       </c>
       <c r="C125">
-        <v>0.925404242175813</v>
+        <v>0.8548356020599764</v>
       </c>
       <c r="D125">
-        <v>0.9685931539479183</v>
+        <v>0.9164203415299034</v>
       </c>
       <c r="E125">
-        <v>0.9254028028654553</v>
+        <v>0.8901047862473875</v>
       </c>
       <c r="F125">
         <v>0.8956858783267725</v>
@@ -19913,13 +19913,13 @@
         <v>0.008223968017930364</v>
       </c>
       <c r="C126">
-        <v>0.008226380903533545</v>
+        <v>-0.01469599923261868</v>
       </c>
       <c r="D126">
-        <v>0.03484754377791451</v>
+        <v>0.00772960660453597</v>
       </c>
       <c r="E126">
-        <v>0.008223985834558321</v>
+        <v>0.01027049887385801</v>
       </c>
       <c r="F126">
         <v>0.009162523803539872</v>
@@ -20068,13 +20068,13 @@
         <v>-0.910695785713904</v>
       </c>
       <c r="C127">
-        <v>-0.910693047745336</v>
+        <v>-0.9414451520797851</v>
       </c>
       <c r="D127">
-        <v>-0.9050039752081928</v>
+        <v>-0.9026850608885663</v>
       </c>
       <c r="E127">
-        <v>-0.9106960413886589</v>
+        <v>-0.8802122340366154</v>
       </c>
       <c r="F127">
         <v>-0.8847335125313437</v>
@@ -20223,13 +20223,13 @@
         <v>0.1461775512496379</v>
       </c>
       <c r="C128">
-        <v>0.1461802101336366</v>
+        <v>0.1035163211325546</v>
       </c>
       <c r="D128">
-        <v>0.207462787821996</v>
+        <v>0.1444054024506789</v>
       </c>
       <c r="E128">
-        <v>0.14617761038784</v>
+        <v>0.1427165133893933</v>
       </c>
       <c r="F128">
         <v>0.137213351436041</v>
@@ -20378,13 +20378,13 @@
         <v>0.5873801960548193</v>
       </c>
       <c r="C129">
-        <v>0.5873826349975343</v>
+        <v>0.5286869928115587</v>
       </c>
       <c r="D129">
-        <v>0.6739793237103581</v>
+        <v>0.5815246911550807</v>
       </c>
       <c r="E129">
-        <v>0.5873803864478774</v>
+        <v>0.5674999962488525</v>
       </c>
       <c r="F129">
         <v>0.5698823608049556</v>
@@ -20533,13 +20533,13 @@
         <v>1.818521577194445</v>
       </c>
       <c r="C130">
-        <v>1.818522591241435</v>
+        <v>1.731350503908423</v>
       </c>
       <c r="D130">
-        <v>1.965351912226991</v>
+        <v>1.801274413200134</v>
       </c>
       <c r="E130">
-        <v>1.81852213311897</v>
+        <v>1.743914088031834</v>
       </c>
       <c r="F130">
         <v>1.761351958128353</v>
@@ -20688,13 +20688,13 @@
         <v>0.831284946126512</v>
       </c>
       <c r="C131">
-        <v>0.8312867760811473</v>
+        <v>0.7702607538387449</v>
       </c>
       <c r="D131">
-        <v>0.9179757289800315</v>
+        <v>0.8231736663998535</v>
       </c>
       <c r="E131">
-        <v>0.8312852086440379</v>
+        <v>0.8008289239878746</v>
       </c>
       <c r="F131">
         <v>0.8048331853170376</v>
@@ -20843,13 +20843,13 @@
         <v>1.172252303467252</v>
       </c>
       <c r="C132">
-        <v>1.172253728164605</v>
+        <v>1.115071889425367</v>
       </c>
       <c r="D132">
-        <v>1.302740229897549</v>
+        <v>1.160986112700478</v>
       </c>
       <c r="E132">
-        <v>1.172252667210036</v>
+        <v>1.125894590275781</v>
       </c>
       <c r="F132">
         <v>1.135110009541467</v>
@@ -20998,13 +20998,13 @@
         <v>0.1229296340976653</v>
       </c>
       <c r="C133">
-        <v>0.1229314328616654</v>
+        <v>0.08171597684289134</v>
       </c>
       <c r="D133">
-        <v>0.1539962299404726</v>
+        <v>0.1213754679953049</v>
       </c>
       <c r="E133">
-        <v>0.122929685540746</v>
+        <v>0.1208165633694284</v>
       </c>
       <c r="F133">
         <v>0.1189536074730677</v>
@@ -21153,13 +21153,13 @@
         <v>0.1179742295595753</v>
       </c>
       <c r="C134">
-        <v>0.1179760629553659</v>
+        <v>0.0893077460374897</v>
       </c>
       <c r="D134">
-        <v>0.1412496976278568</v>
+        <v>0.116465821901666</v>
       </c>
       <c r="E134">
-        <v>0.1179742795571978</v>
+        <v>0.1161719258681058</v>
       </c>
       <c r="F134">
         <v>0.1136883500282103</v>
@@ -21308,13 +21308,13 @@
         <v>0.2619443301566144</v>
       </c>
       <c r="C135">
-        <v>0.2619460633232458</v>
+        <v>0.2268641974305579</v>
       </c>
       <c r="D135">
-        <v>0.2829744440367648</v>
+        <v>0.2591035629848095</v>
       </c>
       <c r="E135">
-        <v>0.2619444229589522</v>
+        <v>0.2542751288379417</v>
       </c>
       <c r="F135">
         <v>0.2529153697583246</v>
@@ -21463,13 +21463,13 @@
         <v>1.132312272297623</v>
       </c>
       <c r="C136">
-        <v>1.132314296398712</v>
+        <v>1.048052165382298</v>
       </c>
       <c r="D136">
-        <v>1.175779800400982</v>
+        <v>1.121413852918377</v>
       </c>
       <c r="E136">
-        <v>1.132312624676388</v>
+        <v>1.087656622581507</v>
       </c>
       <c r="F136">
         <v>1.09617888330906</v>
@@ -21618,13 +21618,13 @@
         <v>0.6348346738547389</v>
       </c>
       <c r="C137">
-        <v>0.634836479559208</v>
+        <v>0.5804308914461327</v>
       </c>
       <c r="D137">
-        <v>0.6690985535611895</v>
+        <v>0.6285419483292659</v>
       </c>
       <c r="E137">
-        <v>0.6348348778204236</v>
+        <v>0.6120822811451088</v>
       </c>
       <c r="F137">
         <v>0.6141615583739803</v>
@@ -21773,13 +21773,13 @@
         <v>-0.2040253065091973</v>
       </c>
       <c r="C138">
-        <v>-0.2040227775697169</v>
+        <v>-0.2208719875443874</v>
       </c>
       <c r="D138">
-        <v>-0.1847649394307209</v>
+        <v>-0.2025553217308874</v>
       </c>
       <c r="E138">
-        <v>-0.2040253518261614</v>
+        <v>-0.1944536045771505</v>
       </c>
       <c r="F138">
         <v>-0.2109208966768731</v>
@@ -21928,13 +21928,13 @@
         <v>-0.485924075946593</v>
       </c>
       <c r="C139">
-        <v>-0.4859215713105013</v>
+        <v>-0.5137861855303244</v>
       </c>
       <c r="D139">
-        <v>-0.4693200864648504</v>
+        <v>-0.4818445680991024</v>
       </c>
       <c r="E139">
-        <v>-0.4859242052738732</v>
+        <v>-0.4679060317780962</v>
       </c>
       <c r="F139">
         <v>-0.4733656972493025</v>
